--- a/meta_stra_framwork/result/split/expre_2.xlsx
+++ b/meta_stra_framwork/result/split/expre_2.xlsx
@@ -14,36 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>expre</t>
-  </si>
-  <si>
-    <t>['D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>expre_long</t>
+  </si>
+  <si>
+    <t>expre_short</t>
   </si>
   <si>
     <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
   </si>
   <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre']</t>
+    <t>['K#90#1&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff]</t>
   </si>
 </sst>
 </file>
@@ -401,87 +437,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/split/expre_2.xlsx
+++ b/meta_stra_framwork/result/split/expre_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>expre_long</t>
   </si>
@@ -40,18 +40,12 @@
     <t>['K#90#1&amp;HS&amp;thre','D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']</t>
   </si>
   <si>
-    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre']</t>
-  </si>
-  <si>
     <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
   </si>
   <si>
     <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre']</t>
   </si>
   <si>
-    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff']</t>
-  </si>
-  <si>
     <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
   </si>
   <si>
@@ -70,16 +64,10 @@
     <t>['K#90#1&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
   </si>
   <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre]</t>
-  </si>
-  <si>
     <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre]</t>
   </si>
   <si>
     <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre]</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff]</t>
   </si>
 </sst>
 </file>
@@ -437,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,29 +524,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/split/expre_2.xlsx
+++ b/meta_stra_framwork/result/split/expre_2.xlsx
@@ -14,60 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>expre_long</t>
-  </si>
-  <si>
-    <t>expre_short</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>expre</t>
+  </si>
+  <si>
+    <t>['D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
   </si>
   <si>
     <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
   </si>
   <si>
-    <t>['K#90#1&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre','D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre]</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre]</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre]</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre]</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre]</t>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']</t>
   </si>
 </sst>
 </file>
@@ -425,106 +392,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/split/expre_2.xlsx
+++ b/meta_stra_framwork/result/split/expre_2.xlsx
@@ -14,27 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>expre</t>
-  </si>
-  <si>
-    <t>['D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>expre_long</t>
+  </si>
+  <si>
+    <t>expre_short</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre','close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre]</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff]</t>
   </si>
 </sst>
 </file>
@@ -392,71 +395,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
